--- a/biology/Zoologie/Chionaspis/Chionaspis.xlsx
+++ b/biology/Zoologie/Chionaspis/Chionaspis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chionaspis est un genre d'insectes hémiptères de la famille des Diaspididae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chionaspis est un genre d'insectes hémiptères de la famille des Diaspididae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Dans sa publication de 1869, l'entomologiste français Victor Signoret (1816-1889) décrit ce genre comme suit[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dans sa publication de 1869, l'entomologiste français Victor Signoret (1816-1889) décrit ce genre comme suit :
 bouclier mâle long, généralement blanc, aux côtés presque parallèles et plus ou moins caréné ;
 bouclier femelle long, avec une extrémité presque pointue et l’autre arrondie ;
 femelle présentant cinq plaques de filières.</t>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (21 janvier 2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (21 janvier 2024) :
 Chionaspis acer (Takagi &amp; Kawai, 1966)
 Chionaspis acericola Hollinger, 1923
 Chionaspis acuta Danzig, 1936
@@ -655,9 +671,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Chionaspis Signoret, 1869[3],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Chionaspis Signoret, 1869,.
 </t>
         </is>
       </c>
@@ -686,7 +704,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>V. Signoret, « Essai sur les Cochenilles ou Gallinsectes (Homoptères - Coccides), 5e partie », Annales de la Société entomologique de France, Paris, SEF et Taylor &amp; Francis, vol. 9,‎ 1869, p. 431-452 (ISSN 0037-9271 et 2168-6351, OCLC 1765810, lire en ligne)</t>
         </is>
